--- a/data-raw/kobo_data_survey_choices.xlsx
+++ b/data-raw/kobo_data_survey_choices.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
+  <si>
+    <t xml:space="preserve">uuid</t>
+  </si>
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -132,6 +135,9 @@
     <t xml:space="preserve">autre_h_3_type_latrine</t>
   </si>
   <si>
+    <t xml:space="preserve">x1</t>
+  </si>
+  <si>
     <t xml:space="preserve">collect:tgNLNKQztD7mnnNZ</t>
   </si>
   <si>
@@ -171,6 +177,9 @@
     <t xml:space="preserve">latrine_prive</t>
   </si>
   <si>
+    <t xml:space="preserve">x2</t>
+  </si>
+  <si>
     <t xml:space="preserve">355571100482497</t>
   </si>
   <si>
@@ -186,19 +195,37 @@
     <t xml:space="preserve">marie</t>
   </si>
   <si>
+    <t xml:space="preserve">x3</t>
+  </si>
+  <si>
     <t xml:space="preserve">non</t>
   </si>
   <si>
+    <t xml:space="preserve">x4</t>
+  </si>
+  <si>
     <t xml:space="preserve">latrine_prive_partage</t>
   </si>
   <si>
+    <t xml:space="preserve">x5</t>
+  </si>
+  <si>
     <t xml:space="preserve">latrine_prive_partage autre</t>
   </si>
   <si>
     <t xml:space="preserve">Aussi latrines communales</t>
   </si>
   <si>
+    <t xml:space="preserve">x6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x7</t>
+  </si>
+  <si>
     <t xml:space="preserve">355571100501825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x8</t>
   </si>
   <si>
     <t xml:space="preserve">latrine_prive_partage latrine_prive</t>
@@ -420,6 +447,7 @@
         <color rgb="FF000000"/>
         <rFont val="Leelawadee"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">h_3_</t>
     </r>
@@ -446,6 +474,7 @@
         <color rgb="FF000000"/>
         <rFont val="Leelawadee"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">h_3_</t>
     </r>
@@ -490,6 +519,7 @@
         <color rgb="FF000000"/>
         <rFont val="Leelawadee"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">h_3_</t>
     </r>
@@ -683,6 +713,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -733,12 +764,14 @@
       <color rgb="FF000000"/>
       <name val="Leelawadee"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Leelawadee"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -750,6 +783,7 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -848,7 +882,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,10 +971,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,10 +1000,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,49 +1112,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="31.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="34.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="28.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="34.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="23.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,734 +1267,761 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>44487.3808400347</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C2" s="2" t="n">
         <v>44487.417772662</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="D2" s="3" t="n">
         <v>44487</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44489.3852717245</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44489.420399375</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>44489.3852717245</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>44489.420399375</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="Q3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="0" t="n">
         <v>66</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="Z3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44489.4244741783</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44489.4584183218</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>44489.4244741783</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>44489.4584183218</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="V4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Y4" s="0" t="s">
-        <v>50</v>
+      <c r="Y4" s="0" t="n">
+        <v>38</v>
       </c>
       <c r="Z4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44489.4667254514</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44489.5020531019</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>44489.4667254514</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>44489.5020531019</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="V5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="0" t="n">
         <v>49</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="Z5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44489.593482581</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44489.6267515741</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>44489.593482581</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>44489.6267515741</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>31</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB6" s="0" t="s">
+      <c r="AA6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44489.6313865046</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44489.6698596296</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AC6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>44489.6313865046</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>44489.6698596296</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="M7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>54</v>
+      <c r="R7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="Y7" s="0" t="s">
-        <v>50</v>
+      <c r="Y7" s="0" t="n">
+        <v>45</v>
       </c>
       <c r="Z7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB7" s="0" t="s">
-        <v>54</v>
+      <c r="AA7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>44489.4057360417</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="C8" s="2" t="n">
         <v>44489.4351203241</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="D8" s="3" t="n">
         <v>44489</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="Q8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>24</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="Z8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB8" s="0" t="s">
+      <c r="AA8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44489.4388323032</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44489.4672302431</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AC8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>44489.4388323032</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>44489.4672302431</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>44489</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="M9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="O9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>54</v>
+      <c r="T9" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="X9" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="Y9" s="0" t="s">
-        <v>50</v>
+      <c r="Y9" s="0" t="n">
+        <v>37</v>
       </c>
       <c r="Z9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="0" t="s">
-        <v>54</v>
+      <c r="AA9" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AG9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AI9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +2041,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
@@ -1999,7 +2053,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="74.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="21.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="34.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="11.52"/>
@@ -2010,267 +2064,267 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H9" s="8"/>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2280,87 +2334,87 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2372,13 +2426,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2388,125 +2442,125 @@
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="G29" s="14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="G30" s="14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2518,13 +2572,13 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -2534,87 +2588,86 @@
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="O35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2626,31 +2679,31 @@
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" s="15"/>
     </row>
@@ -2681,70 +2734,70 @@
       <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>61</v>
+        <v>156</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>161</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>37</v>
+        <v>161</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -2755,7 +2808,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -2766,7 +2819,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -2777,7 +2830,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -2788,7 +2841,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -2799,7 +2852,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -2810,7 +2863,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>7</v>
@@ -2821,7 +2874,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2832,7 +2885,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>9</v>
@@ -2843,7 +2896,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -2854,7 +2907,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>11</v>
@@ -2865,7 +2918,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>12</v>
@@ -2875,351 +2928,351 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="27"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>163</v>
+        <v>171</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>165</v>
+        <v>171</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>40</v>
+        <v>171</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="27"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="27"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="31"/>
+      <c r="A28" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="31"/>
+      <c r="A29" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="27"/>
-      <c r="H31" s="31"/>
+      <c r="B31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="27"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>44</v>
+        <v>181</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>54</v>
+        <v>181</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>51</v>
+        <v>184</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>45</v>
+        <v>184</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>44</v>
+        <v>187</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>54</v>
+        <v>187</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>179</v>
+        <v>187</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>155</v>
+        <v>187</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>53</v>
+        <v>190</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>47</v>
+        <v>190</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>179</v>
+        <v>190</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>48</v>
+        <v>197</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>55</v>
+        <v>197</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>179</v>
-      </c>
       <c r="C56" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/kobo_data_survey_choices.xlsx
+++ b/data-raw/kobo_data_survey_choices.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="survey" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="check_list" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="262">
   <si>
     <t xml:space="preserve">uuid</t>
   </si>
@@ -135,6 +136,45 @@
     <t xml:space="preserve">autre_h_3_type_latrine</t>
   </si>
   <si>
+    <t xml:space="preserve">r_besoin_assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_aucun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_secal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_agr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_sante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_abri_bna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_mediation_coexistence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_eha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_assist_educ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_nsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_besoin_assistance_npr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autre_r_besoin_assistance</t>
+  </si>
+  <si>
     <t xml:space="preserve">x1</t>
   </si>
   <si>
@@ -171,12 +211,18 @@
     <t xml:space="preserve">Population non-déplacée</t>
   </si>
   <si>
+    <t xml:space="preserve">non</t>
+  </si>
+  <si>
     <t xml:space="preserve">veuf</t>
   </si>
   <si>
     <t xml:space="preserve">latrine_prive</t>
   </si>
   <si>
+    <t xml:space="preserve">sante assist_educ</t>
+  </si>
+  <si>
     <t xml:space="preserve">x2</t>
   </si>
   <si>
@@ -195,10 +241,13 @@
     <t xml:space="preserve">marie</t>
   </si>
   <si>
+    <t xml:space="preserve">secal sante abri_bna</t>
+  </si>
+  <si>
     <t xml:space="preserve">x3</t>
   </si>
   <si>
-    <t xml:space="preserve">non</t>
+    <t xml:space="preserve">abri_bna agr sante secal</t>
   </si>
   <si>
     <t xml:space="preserve">x4</t>
@@ -207,6 +256,9 @@
     <t xml:space="preserve">latrine_prive_partage</t>
   </si>
   <si>
+    <t xml:space="preserve">secal abri_bna agr</t>
+  </si>
+  <si>
     <t xml:space="preserve">x5</t>
   </si>
   <si>
@@ -216,19 +268,34 @@
     <t xml:space="preserve">Aussi latrines communales</t>
   </si>
   <si>
+    <t xml:space="preserve">secal abri_bna eha</t>
+  </si>
+  <si>
     <t xml:space="preserve">x6</t>
   </si>
   <si>
+    <t xml:space="preserve">secal eha sante</t>
+  </si>
+  <si>
     <t xml:space="preserve">x7</t>
   </si>
   <si>
     <t xml:space="preserve">355571100501825</t>
   </si>
   <si>
+    <t xml:space="preserve">abri_bna secal autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un métier</t>
+  </si>
+  <si>
     <t xml:space="preserve">x8</t>
   </si>
   <si>
     <t xml:space="preserve">latrine_prive_partage latrine_prive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secal sante assist_educ</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -540,10 +607,34 @@
     <t xml:space="preserve">selected(${type_latrine},"autre")</t>
   </si>
   <si>
+    <t xml:space="preserve">r_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDEVABILITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple liste_besoin_assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De quels types d'assistance humanitaire votre ménage a-t-il le plus besoin ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(.,"aucun") and count-selected(.)&gt;1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous ne pouvez pas sélectionner "Ne sait pas" ou "Aucun" avec une autre réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si autre type d'assistance humanitaire, veuillez préciser :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${besoin_assistance},"autre")</t>
+  </si>
+  <si>
     <t xml:space="preserve">geopoint</t>
   </si>
   <si>
-    <t xml:space="preserve">gps_infrastructure</t>
+    <t xml:space="preserve">gps</t>
   </si>
   <si>
     <t xml:space="preserve">Merci de prendre le point GPS de cet entretien que vous effectuez actuellement.</t>
@@ -697,6 +788,90 @@
   </si>
   <si>
     <t xml:space="preserve">Toilettes à chasse d'eau mécanique ou manuelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logical_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de consentement pour l'enquête</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i_consensus == "non"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée d'enquête de moins de 15 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_duration &lt;  15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urgent_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée d'enquête de plus de 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_duration &gt; 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée d'enquête de plus d'1 heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_duration &gt;=  60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le ou la cheffe de ménage a moins de 18 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_chef_menage_age &lt; 18</t>
   </si>
 </sst>
 </file>
@@ -708,7 +883,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss&quot; UTC&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -760,13 +935,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Leelawadee"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Leelawadee"/>
@@ -780,20 +948,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Leelawadee UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +1002,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF953735"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF93CDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -882,7 +1056,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -899,92 +1073,84 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -995,11 +1161,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,9 +1182,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1060,7 +1243,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8EB4E3"/>
       <rgbColor rgb="FF953735"/>
@@ -1112,13 +1295,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AX9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.13"/>
@@ -1140,7 +1323,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.92"/>
@@ -1152,10 +1335,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="31.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="34.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="34.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="38.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="22.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1465,49 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44487.3808400347</v>
@@ -1285,61 +1519,73 @@
         <v>44487</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>36</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>0</v>
@@ -1359,10 +1605,46 @@
       <c r="AJ2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AL2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44489.3852717245</v>
@@ -1374,67 +1656,73 @@
         <v>44489</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>66</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>0</v>
@@ -1454,10 +1742,46 @@
       <c r="AJ3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AL3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44489.4244741783</v>
@@ -1469,55 +1793,55 @@
         <v>44489</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>32</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>38</v>
@@ -1526,16 +1850,16 @@
         <v>38</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>0</v>
@@ -1555,10 +1879,46 @@
       <c r="AJ4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AL4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44489.4667254514</v>
@@ -1570,67 +1930,67 @@
         <v>44489</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>49</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>49</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>0</v>
@@ -1650,10 +2010,46 @@
       <c r="AJ5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AL5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44489.593482581</v>
@@ -1665,67 +2061,67 @@
         <v>44489</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>31</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>31</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>0</v>
@@ -1746,12 +2142,48 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44489.6313865046</v>
@@ -1763,55 +2195,55 @@
         <v>44489</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>35</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>45</v>
@@ -1820,18 +2252,54 @@
         <v>45</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44489.4057360417</v>
@@ -1843,67 +2311,67 @@
         <v>44489</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>24</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>24</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>0</v>
@@ -1923,10 +2391,49 @@
       <c r="AJ8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AL8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44489.4388323032</v>
@@ -1938,55 +2445,55 @@
         <v>44489</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>37</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="X9" s="0" t="n">
         <v>37</v>
@@ -1995,16 +2502,16 @@
         <v>37</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>0</v>
@@ -2022,6 +2529,42 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2041,10 +2584,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2053,7 +2596,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="74.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="21.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="34.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="11.52"/>
@@ -2064,40 +2607,40 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,193 +2681,193 @@
     </row>
     <row r="6" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H9" s="8"/>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2334,87 +2877,87 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2426,13 +2969,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2442,125 +2985,125 @@
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="H29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2572,13 +3115,13 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -2588,129 +3131,190 @@
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="H34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>142</v>
+        <v>163</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>148</v>
+        <v>169</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" s="22" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" s="22" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="15"/>
+      <c r="A43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="H44" s="15"/>
     </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A38 A42:A44 B32:H32">
+  <conditionalFormatting sqref="A42:A45 B32:H32 A1:A39">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="text" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("text",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="text" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("text",A40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2734,70 +3338,70 @@
       <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>70</v>
+        <v>186</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>160</v>
+        <v>187</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>53</v>
+        <v>191</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>39</v>
+        <v>191</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>164</v>
+        <v>191</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -2808,7 +3412,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -2819,7 +3423,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -2830,7 +3434,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -2841,7 +3445,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -2852,7 +3456,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -2863,7 +3467,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>7</v>
@@ -2874,7 +3478,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2885,7 +3489,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>9</v>
@@ -2896,7 +3500,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -2907,7 +3511,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>11</v>
@@ -2918,7 +3522,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>12</v>
@@ -2928,359 +3532,359 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>168</v>
+        <v>197</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="26"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>170</v>
+        <v>199</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>172</v>
+        <v>201</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>42</v>
+        <v>201</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="26"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="26"/>
+      <c r="A28" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" s="26"/>
+      <c r="A29" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="26"/>
+      <c r="A30" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="B31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>46</v>
+        <v>211</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>58</v>
+        <v>211</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="26"/>
+      <c r="B35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>54</v>
+        <v>214</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>47</v>
+        <v>214</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>185</v>
+        <v>214</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="26"/>
+      <c r="B39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>46</v>
+        <v>217</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>58</v>
+        <v>217</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>188</v>
+        <v>217</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>164</v>
+        <v>217</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>56</v>
+        <v>220</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>192</v>
+        <v>220</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>49</v>
+        <v>220</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>195</v>
+        <v>220</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>198</v>
+        <v>227</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>50</v>
+        <v>227</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>60</v>
+        <v>227</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>202</v>
+        <v>227</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>188</v>
+        <v>227</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B5 B18:B27 B31:B43 B45:B49 B51:B56">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B17">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3290,4 +3894,169 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>